--- a/dist/整合結果/中時/excel_by_week/2025_W24.xlsx
+++ b/dist/整合結果/中時/excel_by_week/2025_W24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:C265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>投信季底作帳 內行點名這9檔：散戶跟緊被抬轎 - 財經</t>
+          <t>股東注意！川普關稅戰、新台幣強升 中信金總座曝光備戰計畫 - 財經</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250613002655-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250613002434-260410</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>匯損衝擊大！股東憂凱基人壽續虧 董座一句話穩信心 - 財經</t>
+          <t>投信季底作帳 內行點名這9檔：散戶跟緊被抬轎 - 財經</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250613002553-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250613002655-260410</t>
         </is>
       </c>
     </row>
@@ -1750,12 +1750,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>股東注意！川普關稅戰、新台幣強升 中信金總座曝光備戰計畫 - 財經</t>
+          <t>匯損衝擊大！股東憂凱基人壽續虧 董座一句話穩信心 - 財經</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250613002434-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250613002553-260410</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>金控董事改選》蔡宗翰、林知延 接班布局成形 - 財經要聞</t>
+          <t>金控超級股東會日登場 聚焦台幣升值 金控全面備戰 - 財經要聞</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000140-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000137-260202</t>
         </is>
       </c>
     </row>
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>蘇純興升和泰副董 汎德通過半年配息制 - 財經要聞</t>
+          <t>貿易緊張、房市低迷 陸5月新增貸款遜預期 - 全球財經</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000169-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000190-260203</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>貿易緊張、房市低迷 陸5月新增貸款遜預期 - 全球財經</t>
+          <t>超微MI500呼之欲出 全面對決輝達 - 財經要聞</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000190-260203</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000153-260202</t>
         </is>
       </c>
     </row>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>超微MI500呼之欲出 全面對決輝達 - 財經要聞</t>
+          <t>迎2大利多 嘉澤H2營運反攻 - 證券．權證</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000153-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000253-260206</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>金控拓展版圖》先備妥資金 評估併購機會 - 財經要聞</t>
+          <t>金控股利政策》富邦金股東嫌配息少 蔡明興：明年會較開放 - 財經要聞</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000145-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000142-260202</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>達‧人‧小‧叮‧嚀－買房大挑戰 盤點好財務 - 產業．科技</t>
+          <t>金控拓展版圖》先備妥資金 評估併購機會 - 財經要聞</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000347-260204</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000145-260202</t>
         </is>
       </c>
     </row>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>金控股利政策》富邦金股東嫌配息少 蔡明興：明年會較開放 - 財經要聞</t>
+          <t>金控董事改選》蔡宗翰、林知延 接班布局成形 - 財經要聞</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000142-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000140-260202</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>金控超級股東會日登場 聚焦台幣升值 金控全面備戰 - 財經要聞</t>
+          <t>關貿：今年營運穩中向好 - 證券．權證</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000137-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000288-260206</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>華豐擬赴美設廠 相中水牛城、新墨西哥州 - 證券．權證</t>
+          <t>蘇純興升和泰副董 汎德通過半年配息制 - 財經要聞</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000273-260206</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000169-260202</t>
         </is>
       </c>
     </row>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>迎2大利多 嘉澤H2營運反攻 - 證券．權證</t>
+          <t>達‧人‧小‧叮‧嚀－買房大挑戰 盤點好財務 - 產業．科技</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000253-260206</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000347-260204</t>
         </is>
       </c>
     </row>
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>華為AI晶片 美估年產不足20萬顆 - 全球財經</t>
+          <t>華豐擬赴美設廠 相中水牛城、新墨西哥州 - 證券．權證</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000188-260203</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000273-260206</t>
         </is>
       </c>
     </row>
@@ -1954,12 +1954,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>熱門股－英業達 訂單能見度轉佳 - 證券．權證</t>
+          <t>熱門股－貿聯-KY 連拉4根紅棒 - 證券．權證</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000263-260206</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000265-260206</t>
         </is>
       </c>
     </row>
@@ -1971,12 +1971,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>職場達人－統一投顧首席經濟學家 呂政道學以致用 開闢總經應用新想像 - 專題周報</t>
+          <t>職場達人－群益投信經理人 陳沅易重前景 找出翻3,000倍股票 - 專題周報</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000334-260209</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000338-260209</t>
         </is>
       </c>
     </row>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>美鋼鋁關稅 23日進口家電入列 - 全球財經</t>
+          <t>職場達人－統一投顧首席經濟學家 呂政道學以致用 開闢總經應用新想像 - 專題周報</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000181-260203</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000334-260209</t>
         </is>
       </c>
     </row>
@@ -2005,12 +2005,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>禾月堂北海道榴槤乳酪塔 全台首創 - 產業．科技</t>
+          <t>美鋼鋁關稅 23日進口家電入列 - 全球財經</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000223-260204</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000181-260203</t>
         </is>
       </c>
     </row>
@@ -2022,12 +2022,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>福容大飯店 推澎嶼宴海鮮桶 - 產業．科技</t>
+          <t>禾月堂北海道榴槤乳酪塔 全台首創 - 產業．科技</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000221-260204</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000223-260204</t>
         </is>
       </c>
     </row>
@@ -2039,12 +2039,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>祥碩Q3業績將贏Q2 樂看全年 - 證券．權證</t>
+          <t>福容大飯店 推澎嶼宴海鮮桶 - 產業．科技</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000233-260206</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000221-260204</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>熱門股－貿聯-KY 連拉4根紅棒 - 證券．權證</t>
+          <t>祥碩Q3業績將贏Q2 樂看全年 - 證券．權證</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000265-260206</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000233-260206</t>
         </is>
       </c>
     </row>
@@ -2073,12 +2073,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>熱門股－士開 跌深反彈收復月線 - 證券．權證</t>
+          <t>熱門股－英業達 訂單能見度轉佳 - 證券．權證</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000278-260206</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000263-260206</t>
         </is>
       </c>
     </row>
@@ -2090,12 +2090,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>歐盟標準樹木修剪方法講座 歐洲頂尖樹藝師 來台開講 - 產業．科技</t>
+          <t>熱門股－士開 跌深反彈收復月線 - 證券．權證</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000225-260204</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000278-260206</t>
         </is>
       </c>
     </row>
@@ -2107,12 +2107,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>關貿：今年營運穩中向好 - 證券．權證</t>
+          <t>黃金逼歷史最高價 新台幣一度衝29.5 - 財經焦點</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000288-260206</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000367-260110</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>職場達人－群益投信經理人 陳沅易重前景 找出翻3,000倍股票 - 專題周報</t>
+          <t>華為AI晶片 美估年產不足20萬顆 - 全球財經</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000338-260209</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000188-260203</t>
         </is>
       </c>
     </row>
@@ -2158,12 +2158,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>黃金逼歷史最高價 新台幣一度衝29.5 - 財經焦點</t>
+          <t>老爸過世！他繼承房產賺了600萬 「1個錯誤」悲劇發生了 - 財經</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000367-260110</t>
+          <t>https://www.chinatimes.com/realtimenews/20250614000025-260410</t>
         </is>
       </c>
     </row>
@@ -2175,12 +2175,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>00919換股大絕殺！晶片一哥等4檔全賣光了 還有「2棄嬰」淌血清不完 - 要聞</t>
+          <t>誠品生活台南正式開幕 7／5書店24小時不打烊 - 財經</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250614002646-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250614002671-260410</t>
         </is>
       </c>
     </row>
@@ -2192,12 +2192,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>陸咖啡市場殺到見骨！庫迪1杯不到13元 逼星巴克首度砍價 - 財經</t>
+          <t>伊朗射彈報復以色列！道瓊重挫769點、台積電ADR跌2.01％ - 財經</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250614000013-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250614000689-260410</t>
         </is>
       </c>
     </row>
@@ -2226,12 +2226,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>防汛期已來臨 卓揆籲各項準備工作務必就緒 - 財經</t>
+          <t>日本專家：重啟核電是日本脫碳目標的必要進程 - 財經</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250614003078-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250614003449-260410</t>
         </is>
       </c>
     </row>
@@ -2243,12 +2243,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>曾文溪排水治理及防汛整備工作 卓揆指示三項目標</t>
+          <t>綠電「過路費」政府爽給3折價 沒錢投資電網台電喊檢討</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250614003053-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250614003346-260410</t>
         </is>
       </c>
     </row>
@@ -2260,12 +2260,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>以伊戰火升溫國內供油暫無影響 防荷姆茲海峽封鎖中油有備案</t>
+          <t>防汛期已來臨 卓揆籲各項準備工作務必就緒 - 財經</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250614003251-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250614003078-260410</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>私立公墓納骨塔管理費用新制 7月1日上路 - 財經</t>
+          <t>曾文溪排水治理及防汛整備工作 卓揆指示三項目標</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250614002986-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250614003053-260410</t>
         </is>
       </c>
     </row>
@@ -2294,12 +2294,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>誠品生活台南正式開幕 7／5書店24小時不打烊 - 財經</t>
+          <t>以伊戰火升溫國內供油暫無影響 防荷姆茲海峽封鎖中油有備案</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250614002671-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250614003251-260410</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>以伊空擊轟炸 金價high飆4％！外資曝「這時間」攻4000 別太早賣 - 財經</t>
+          <t>私立公墓納骨塔管理費用新制 7月1日上路 - 財經</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250614002513-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250614002986-260410</t>
         </is>
       </c>
     </row>
@@ -2328,12 +2328,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>陸鬆綁稀土管制 汽車業有救？福特CEO曝真相：不是想的那樣 - 財經</t>
+          <t>00919換股大絕殺！晶片一哥等4檔全賣光了 還有「2棄嬰」淌血清不完 - 要聞</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250614001680-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250614002646-260410</t>
         </is>
       </c>
     </row>
@@ -2345,12 +2345,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>魏哲家一句話成轟動！「綠電買爆」這2大族群被市場點名 - 要聞</t>
+          <t>以伊空擊轟炸 金價high飆4％！外資曝「這時間」攻4000 別太早賣 - 財經</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250614002213-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250614002513-260410</t>
         </is>
       </c>
     </row>
@@ -2362,12 +2362,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>月薪6萬拚首購 收支比不足竟能闖關成功！ 行員親授40年房貸過件密技：保人加分公式曝 - 財經</t>
+          <t>陸鬆綁稀土管制 汽車業有救？福特CEO曝真相：不是想的那樣 - 財經</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250614001946-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250614001680-260410</t>
         </is>
       </c>
     </row>
@@ -2379,12 +2379,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>老爸過世！他繼承房產賺了600萬 「1個錯誤」悲劇發生了 - 財經</t>
+          <t>魏哲家一句話成轟動！「綠電買爆」這2大族群被市場點名 - 要聞</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250614000025-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250614002213-260410</t>
         </is>
       </c>
     </row>
@@ -2396,12 +2396,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>爸爸剛走哭到腫 還要冷靜辦一堆後事？無腦「繼承6大SOP」照著做輕鬆KO - 財經</t>
+          <t>月薪6萬拚首購 收支比不足竟能闖關成功！ 行員親授40年房貸過件密技：保人加分公式曝 - 財經</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250614001542-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250614001946-260410</t>
         </is>
       </c>
     </row>
@@ -2413,12 +2413,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>不想朝九晚五、不愛與人交際？「迷你工作」風潮來了</t>
+          <t>爸爸剛走哭到腫 還要冷靜辦一堆後事？無腦「繼承6大SOP」照著做輕鬆KO - 財經</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250614000014-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250614001542-260410</t>
         </is>
       </c>
     </row>
@@ -2430,12 +2430,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>下流老人悲歌！真實案例曝光 百萬級部長淪洗碗工 石化高管千萬養老金「1原因」也沒了 - 財經</t>
+          <t>他在「這區」買1200萬房 貸不到新青安！銀行勸退原因：年薪沒150萬 - 要聞</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250614001429-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250614001677-260410</t>
         </is>
       </c>
     </row>
@@ -2447,12 +2447,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>美提2大談判條件 越南對等關稅可望砍半 - 財經</t>
+          <t>不想朝九晚五、不愛與人交際？「迷你工作」風潮來了</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250614001154-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250614000014-260410</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>以伊開打 油價一度飆14％還沒漲完？分析師揭1原因…撐不久 - 財經</t>
+          <t>下流老人悲歌！真實案例曝光 百萬級部長淪洗碗工 石化高管千萬養老金「1原因」也沒了 - 財經</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250614001127-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250614001429-260410</t>
         </is>
       </c>
     </row>
@@ -2481,12 +2481,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>慘！特斯拉遭列黑名單 這國退休基金全賣光 套現404億 - 財經</t>
+          <t>美提2大談判條件 越南對等關稅可望砍半 - 財經</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250614001128-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250614001154-260410</t>
         </is>
       </c>
     </row>
@@ -2498,12 +2498,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>兩岸貿易狂押「1產品」！謝金河揭台灣與大陸 誰依賴誰較多？ - 財經</t>
+          <t>以伊開打 油價一度飆14％還沒漲完？分析師揭1原因…撐不久 - 財經</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250614001280-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250614001127-260410</t>
         </is>
       </c>
     </row>
@@ -2515,12 +2515,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>新青安太沉重！ 她背40年房貸 2原因悲喊後悔想脫手 - 財經</t>
+          <t>慘！特斯拉遭列黑名單 這國退休基金全賣光 套現404億 - 財經</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250614000006-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250614001128-260410</t>
         </is>
       </c>
     </row>
@@ -2532,12 +2532,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>少年股神「翻船」啟示錄！3天慘賠2400萬 新手必看3招 - 財經</t>
+          <t>兩岸貿易狂押「1產品」！謝金河揭台灣與大陸 誰依賴誰較多？ - 財經</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250614000005-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250614001280-260410</t>
         </is>
       </c>
     </row>
@@ -2549,12 +2549,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>財經選讀》「被看輕的王牌」讓川普縮了 北京如何命中歐美痛點？ - 財經</t>
+          <t>新青安太沉重！ 她背40年房貸 2原因悲喊後悔想脫手 - 財經</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250614000021-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250614000006-260410</t>
         </is>
       </c>
     </row>
@@ -2566,12 +2566,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>伊朗射彈報復以色列！道瓊重挫769點、台積電ADR跌2.01％ - 財經</t>
+          <t>少年股神「翻船」啟示錄！3天慘賠2400萬 新手必看3招 - 財經</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250614000689-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250614000005-260410</t>
         </is>
       </c>
     </row>
@@ -2583,12 +2583,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>他在「這區」買1200萬房 貸不到新青安！銀行勸退原因：年薪沒150萬 - 要聞</t>
+          <t>財經選讀》「被看輕的王牌」讓川普縮了 北京如何命中歐美痛點？ - 財經</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250614001677-260410</t>
+          <t>https://www.chinatimes.com/realtimenews/20250614000021-260410</t>
         </is>
       </c>
     </row>
@@ -2600,12 +2600,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>東台PCB鑽孔機 Q3出貨滿載 - 證券．權證</t>
+          <t>陸咖啡市場殺到見骨！庫迪1杯不到13元 逼星巴克首度砍價 - 財經</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000271-260206</t>
+          <t>https://www.chinatimes.com/realtimenews/20250614000013-260410</t>
         </is>
       </c>
     </row>
@@ -2617,12 +2617,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>以伊開戰油金飆 全球股市倒地 - 財經要聞</t>
+          <t>東台PCB鑽孔機 Q3出貨滿載 - 證券．權證</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000127-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000271-260206</t>
         </is>
       </c>
     </row>
@@ -2634,12 +2634,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>晶片禁令坐大華為 黃仁勳：輝達財測將排除中國市場 - 財經要聞</t>
+          <t>歐盟標準樹木修剪方法講座 歐洲頂尖樹藝師 來台開講 - 產業．科技</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000133-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000225-260204</t>
         </is>
       </c>
     </row>
@@ -2651,12 +2651,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>台灣對外資產總額 衝上3兆美元 - 金融．稅務</t>
+          <t>晶片禁令坐大華為 黃仁勳：輝達財測將排除中國市場 - 財經要聞</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000200-260205</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000133-260202</t>
         </is>
       </c>
     </row>
@@ -2668,12 +2668,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>台灣大 跨界推動山椒魚保育 - 財經要聞</t>
+          <t>台股守住22K 下周再戰年線 - 財經要聞</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000216-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000156-260202</t>
         </is>
       </c>
     </row>
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>台北遠東香格里拉 自助餐飄印度香 - 產業．科技</t>
+          <t>台灣對外資產總額 衝上3兆美元 - 金融．稅務</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000231-260204</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000200-260205</t>
         </is>
       </c>
     </row>
@@ -2702,12 +2702,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>創同期次高 東陽前五月每股稅前賺3.55元 - 證券．權證</t>
+          <t>台灣大 跨界推動山椒魚保育 - 財經要聞</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000236-260206</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000216-260202</t>
         </is>
       </c>
     </row>
@@ -2719,12 +2719,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>公寓總價年漲7.5％ 遠超電梯大樓 - 財經要聞</t>
+          <t>台北遠東香格里拉 自助餐飄印度香 - 產業．科技</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000213-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000231-260204</t>
         </is>
       </c>
     </row>
@@ -2736,12 +2736,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>全球股市嚇趴 亞股臉綠 美股早盤大跌 - 財經焦點</t>
+          <t>創同期次高 東陽前五月每股稅前賺3.55元 - 證券．權證</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000369-260110</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000236-260206</t>
         </is>
       </c>
     </row>
@@ -2753,12 +2753,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>光通訊需求爆發 台供應鏈受惠 - 證券．權證</t>
+          <t>公寓總價年漲7.5％ 遠超電梯大樓 - 財經要聞</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000286-260206</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000213-260202</t>
         </is>
       </c>
     </row>
@@ -2770,12 +2770,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>光寶科董座宋明峰、富邦金董事蔡明忠 加碼自家股 - 財經要聞</t>
+          <t>全球股市嚇趴 亞股臉綠 美股早盤大跌 - 財經焦點</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000158-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000369-260110</t>
         </is>
       </c>
     </row>
@@ -2787,12 +2787,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>備戰參院選舉 日相擬發現金 - 全球財經</t>
+          <t>光通訊需求爆發 台供應鏈受惠 - 證券．權證</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000177-260203</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000286-260206</t>
         </is>
       </c>
     </row>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>綠電「過路費」政府爽給3折價 沒錢投資電網台電喊檢討</t>
+          <t>光寶科董座宋明峰、富邦金董事蔡明忠 加碼自家股 - 財經要聞</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250614003346-260410</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000158-260202</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>台股守住22K 下周再戰年線 - 財經要聞</t>
+          <t>備戰參院選舉 日相擬發現金 - 全球財經</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000156-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000177-260203</t>
         </is>
       </c>
     </row>
@@ -2838,12 +2838,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>以伊衝突加劇 黃金、原油ETF爆量漲 - 證券．權證</t>
+          <t>以伊開戰油金飆 全球股市倒地 - 財經要聞</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000245-260206</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000127-260202</t>
         </is>
       </c>
     </row>
@@ -2855,12 +2855,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>中歐峰會7／24登陸 談電動車關稅 - 全球財經</t>
+          <t>以伊衝突加劇 黃金、原油ETF爆量漲 - 證券．權證</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000185-260203</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000245-260206</t>
         </is>
       </c>
     </row>
@@ -2872,12 +2872,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>世紀鋼 投信、自營商護航 - 證券．權證</t>
+          <t>五大行刷卡額 5月衝2,622億 - 金融．稅務</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000280-260206</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000197-260205</t>
         </is>
       </c>
     </row>
@@ -2889,12 +2889,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>一殯遷出台北核心 中山區華麗轉身 - 財經焦點</t>
+          <t>中歐峰會7／24登陸 談電動車關稅 - 全球財經</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000418-260110</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000185-260203</t>
         </is>
       </c>
     </row>
@@ -2906,12 +2906,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>SCFI翻黑 美西線運價暴跌 - 財經要聞</t>
+          <t>世紀鋼 投信、自營商護航 - 證券．權證</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000167-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000280-260206</t>
         </is>
       </c>
     </row>
@@ -2923,12 +2923,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CBO：大而美法案是劫貧濟富 - 全球財經</t>
+          <t>一殯遷出台北核心 中山區華麗轉身 - 財經焦點</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000179-260203</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000418-260110</t>
         </is>
       </c>
     </row>
@@ -2940,12 +2940,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>All You Can Eat－夏日搶客拚買氣 台北五星飯店吃到飽大戰起跑！ - 專題周報</t>
+          <t>SCFI翻黑 美西線運價暴跌 - 財經要聞</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000321-260209</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000167-260202</t>
         </is>
       </c>
     </row>
@@ -2957,12 +2957,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ABC Cooking Studio手作課 聯名布丁狗 - 產業．科技</t>
+          <t>All You Can Eat－夏日搶客拚買氣 台北五星飯店吃到飽大戰起跑！ - 專題周報</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000229-260204</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000321-260209</t>
         </is>
       </c>
     </row>
@@ -2974,12 +2974,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>15檔高殖利率 力抗亂流 - 財經要聞</t>
+          <t>ABC Cooking Studio手作課 聯名布丁狗 - 產業．科技</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000124-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000229-260204</t>
         </is>
       </c>
     </row>
@@ -2991,12 +2991,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>華豐相中美國水牛城、新墨西哥州 有意租地設廠 - 財經</t>
+          <t>15檔高殖利率 力抗亂流 - 財經要聞</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250613005120-260410</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000124-260202</t>
         </is>
       </c>
     </row>
@@ -3008,12 +3008,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Cloudflare WAF 連線錯誤頁面</t>
+          <t>華豐相中美國水牛城、新墨西哥州 有意租地設廠 - 財經</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250613001601-260410?ctrack=pc_money_headl_p04</t>
+          <t>https://www.chinatimes.com/realtimenews/20250613005120-260410</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3025,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>五大行刷卡額 5月衝2,622億 - 金融．稅務</t>
+          <t>Cloudflare WAF 連線錯誤頁面</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000197-260205</t>
+          <t>https://www.chinatimes.com/realtimenews/20250613001601-260410?ctrack=pc_money_headl_p04</t>
         </is>
       </c>
     </row>
@@ -3042,12 +3042,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>台．北．新．餐．廳－三千有找品味三星廚藝 台北最新「Fon-Ce」當代拉丁美洲料理餐廳開箱 - 專題周報</t>
+          <t>曾炎裕專欄－今年投資天花板是AI、地板是電動車 - 財經要聞</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000308-260209</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000162-260202</t>
         </is>
       </c>
     </row>
@@ -3059,12 +3059,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>台．北．新．餐．廳－在玻璃屋內品嘗經典法菜好味道！北美館Bonami法式小館開箱 - 產業特刊</t>
+          <t>台．北．新．餐．廳－三千有找品味三星廚藝 台北最新「Fon-Ce」當代拉丁美洲料理餐廳開箱 - 專題周報</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000295-260210</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000308-260209</t>
         </is>
       </c>
     </row>
@@ -3076,12 +3076,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>和碩斥資28億 設美國全資子公司 強化北美營運據點與製造能力 - 財經要聞</t>
+          <t>台．北．新．餐．廳－在玻璃屋內品嘗經典法菜好味道！北美館Bonami法式小館開箱 - 產業特刊</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000151-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000295-260210</t>
         </is>
       </c>
     </row>
@@ -3093,12 +3093,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>星宇快攻搶市占 拚配息 - 財經要聞</t>
+          <t>CBO：大而美法案是劫貧濟富 - 全球財經</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000164-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000179-260203</t>
         </is>
       </c>
     </row>
@@ -3110,12 +3110,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>新松町．新城計畫 定義菁英生活 - 財經焦點</t>
+          <t>國泰金、華南金第三代 蔡宗翰、林知延接副董 - 財經焦點</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000415-260110</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000412-260110</t>
         </is>
       </c>
     </row>
@@ -3127,12 +3127,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>新式居家服務興起 垃圾到府代收 成長快速 - 財經焦點</t>
+          <t>星宇快攻搶市占 拚配息 - 財經要聞</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000422-260110</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000164-260202</t>
         </is>
       </c>
     </row>
@@ -3144,12 +3144,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>新北置屋 預算1500萬元 這2區可買40坪 - 財經焦點</t>
+          <t>和碩斥資28億 設美國全資子公司 強化北美營運據點與製造能力 - 財經要聞</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000420-260110</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000151-260202</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3161,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>新北房市 四號公園生活圈 雙和熱區 - 產業．科技</t>
+          <t>新松町．新城計畫 定義菁英生活 - 財經焦點</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000342-260204</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000415-260110</t>
         </is>
       </c>
     </row>
@@ -3178,12 +3178,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>操盤心法－全球經濟展望下修 題材股各顯神通 - 證券．權證</t>
+          <t>新北置屋 預算1500萬元 這2區可買40坪 - 財經焦點</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000249-260206</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000420-260110</t>
         </is>
       </c>
     </row>
@@ -3195,12 +3195,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>振曜 訂單能見度直達10月 - 證券．權證</t>
+          <t>新北房市 四號公園生活圈 雙和熱區 - 產業．科技</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000256-260206</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000342-260204</t>
         </is>
       </c>
     </row>
@@ -3212,12 +3212,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>拿下星際之門計畫 AI助攻 華城營運看俏 - 財經要聞</t>
+          <t>操盤心法－全球經濟展望下修 題材股各顯神通 - 證券．權證</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000173-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000249-260206</t>
         </is>
       </c>
     </row>
@@ -3229,12 +3229,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>技嘉、微星 歐洲AI基建搶先機 - 證券．權證</t>
+          <t>振曜 訂單能見度直達10月 - 證券．權證</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000283-260206</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000256-260206</t>
         </is>
       </c>
     </row>
@@ -3246,12 +3246,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>愛爾麗 插旗韓國生髮醫美 - 產業．科技</t>
+          <t>拿下星際之門計畫 AI助攻 華城營運看俏 - 財經要聞</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000227-260204</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000173-260202</t>
         </is>
       </c>
     </row>
@@ -3263,12 +3263,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>彰銀續拚國際化 推動數位創新 - 金融．稅務</t>
+          <t>技嘉、微星 歐洲AI基建搶先機 - 證券．權證</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000203-260205</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000283-260206</t>
         </is>
       </c>
     </row>
@@ -3280,12 +3280,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>廣達有單就做 林百里：美製iPhone會虧錢 - 財經焦點</t>
+          <t>愛爾麗 插旗韓國生髮醫美 - 產業．科技</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000406-260110</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000227-260204</t>
         </is>
       </c>
     </row>
@@ -3297,12 +3297,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>工商社論》重構貿易戰略 擺脫經濟衰退威脅 - 財經要聞</t>
+          <t>彰銀續拚國際化 推動數位創新 - 金融．稅務</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000135-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000203-260205</t>
         </is>
       </c>
     </row>
@@ -3314,12 +3314,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>小巨人加持 儒鴻樂看今年優去年 - 財經要聞</t>
+          <t>新式居家服務興起 垃圾到府代收 成長快速 - 財經焦點</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000210-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000422-260110</t>
         </is>
       </c>
     </row>
@@ -3331,12 +3331,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>宏碁郭劍成 接振樺電董座 - 證券．權證</t>
+          <t>工商社論》重構貿易戰略 擺脫經濟衰退威脅 - 財經要聞</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000259-260206</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000135-260202</t>
         </is>
       </c>
     </row>
@@ -3348,12 +3348,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>學者示警 持久戰讓全球通膨壓力變大 - 財經焦點</t>
+          <t>廣達有單就做 林百里：美製iPhone會虧錢 - 財經焦點</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000371-260110</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000406-260110</t>
         </is>
       </c>
     </row>
@@ -3365,12 +3365,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>央行踩煞車 台幣一周仍狂升2.63角 - 財經要聞</t>
+          <t>士電決配息4.5元 歷年最佳 - 證券．權證</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000130-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000268-260206</t>
         </is>
       </c>
     </row>
@@ -3382,12 +3382,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>天能綠電 周漲170％冠興櫃 - 證券．權證</t>
+          <t>外銀：歐元難取代美元地位 - 金融．稅務</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000239-260206</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000207-260205</t>
         </is>
       </c>
     </row>
@@ -3399,12 +3399,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>外銀：歐元難取代美元地位 - 金融．稅務</t>
+          <t>天能綠電 周漲170％冠興櫃 - 證券．權證</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000207-260205</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000239-260206</t>
         </is>
       </c>
     </row>
@@ -3416,12 +3416,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>士電決配息4.5元 歷年最佳 - 證券．權證</t>
+          <t>國際戰事再起 軍工股獨昂揚 - 證券．權證</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000268-260206</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000242-260206</t>
         </is>
       </c>
     </row>
@@ -3433,12 +3433,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>國際戰事再起 軍工股獨昂揚 - 證券．權證</t>
+          <t>央行踩煞車 台幣一周仍狂升2.63角 - 財經要聞</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000242-260206</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000130-260202</t>
         </is>
       </c>
     </row>
@@ -3450,12 +3450,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>國際原油飆13％ 小摩喊上130美元 - 財經焦點</t>
+          <t>學者示警 持久戰讓全球通膨壓力變大 - 財經焦點</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000363-260110</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000371-260110</t>
         </is>
       </c>
     </row>
@@ -3467,12 +3467,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>國泰金、華南金第三代 蔡宗翰、林知延接副董 - 財經焦點</t>
+          <t>宏碁郭劍成 接振樺電董座 - 證券．權證</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000412-260110</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000259-260206</t>
         </is>
       </c>
     </row>
@@ -3484,12 +3484,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>曾炎裕專欄－今年投資天花板是AI、地板是電動車 - 財經要聞</t>
+          <t>小巨人加持 儒鴻樂看今年優去年 - 財經要聞</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/newspapers/20250614000162-260202</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000210-260202</t>
         </is>
       </c>
     </row>
@@ -3501,12 +3501,1440 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>日本專家：重啟核電是日本脫碳目標的必要進程 - 財經</t>
+          <t>國際原油飆13％ 小摩喊上130美元 - 財經焦點</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://www.chinatimes.com/realtimenews/20250614003449-260410</t>
+          <t>https://www.chinatimes.com/newspapers/20250614000363-260110</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>趙彭博上周第6洞戰績 - 產業特刊</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000213-260210</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>陳立委上周第6洞戰績 - 產業特刊</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000211-260210</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>陳加婓把保險當福音 給需要的人合適的保障 - 金融．稅務</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000194-260205</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>防汛整備 卓揆提治水三大目標 - 財經要聞</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000135-260202</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>退休理財術－貿易戰衝擊退休金 專家教戰請領眉角 - 產業特刊</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000283-260210</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>趙彭博季底作帳 留意投信買超股 - 產業特刊</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000225-260210</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>陳立委台積未填息 短線震盪加劇 - 產業特刊</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000220-260210</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>華南金 擘劃成長藍圖 - 證券．權證</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000241-260206</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>裕隆響應永續 挺台灣原創紀錄片 - 產業．科技</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000295-260204</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>蘇姿丰：加速器商機 2028衝5千億美元 - 財經要聞</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000144-260202</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>華擎 穩站所有均線 - 證券．權證</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000265-260206</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>聯電 蓄力挑戰年線 - 證券．權證</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000251-260206</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>緯創 外資大舉買進 - 證券．權證</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000263-260206</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>統一 四大業務挹注 - 證券．權證</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000261-260206</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>結合專業與創新 合庫人壽總經理藍年紳翻轉公股金融業 - 專題周報</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000200-260209</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>陸傳延遲審批新思科技併購 - 全球財經</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000177-260203</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>福隆沙雕藝術季 VOLVO首度登場 - 產業．科技</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000299-260204</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>買氣不墜 黃金存摺續熱 - 財經要聞</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000156-260202</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>陽明 歐洲線運價漲 - 證券．權證</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000271-260206</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>勞保不到15年也能領年金！繳國民年金會後悔？「1來1回竟差122萬」年資價值實例算給你看 - 財經</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/realtimenews/20250615001952-260410</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>雙利空夾擊 機械、工具機業暫緩接單 - 財經要聞</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000146-260202</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>碳交易供需失衡 陸CEA價走低 - 全球財經</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000184-260203</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>孝親族必看！ 100萬裝潢打造父母退休宅 2處設計超關鍵 - 財經</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/realtimenews/20250615002938-260410</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>旺春輪已滅火 萬海：與遠洋拖船完成拖帶連結 - 財經</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/realtimenews/20250615002834-260410</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>世紀鋼營運「一魚四吃」國內產能供不應求！下半年轉上市 - 財經</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/realtimenews/20250615000007-260410</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>魏哲家罕見1暗示 散戶可留意！外資曝台積電飆新天價機會大 - 財經</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/realtimenews/20250615000006-260410</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>民眾「收入不足」貸不到新青安 公股銀急澄清 - 財經</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/realtimenews/20250615002730-260410</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>台灣跟進美國？ 華為、中芯列黑名單 出口限制比照塔利班 - 財經</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/realtimenews/20250615002601-260410</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>小錢滾出高報酬！0050在紅什麼？「5月最強定投排行榜曝光」7金釵人氣不輸高息ETF - 財經</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/realtimenews/20250615002269-260410</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>雙作帳行情 台股戰23,000 - 財經要聞</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000151-260202</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>中油6／16起汽油價格不調整、柴油調漲0.3元 - 財經</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/realtimenews/20250615002262-260410</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>6月高息ETF配息大鬥法：00713走下神壇？00918走出冷宮 變存股大熱門 - 財經</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/realtimenews/20250615001541-260410</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>安成生技拚轉骨 要先過籌資這一關 - 財經</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/realtimenews/20250615000009-260410</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>技嘉董座高喊「今年不讓股東失望」 關鍵大將回鍋 - 財經</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/realtimenews/20250615000008-260410</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>華為有底氣 黃仁勳解讀任正非專訪：能覆蓋北京甚至其他市場需求</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/realtimenews/20250615000895-260410</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>強制險改革！應擴大瞄準危險駕駛 用1狠招約束違規累犯 - 財經</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/realtimenews/20250615000003-260410</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>大陸「人造太陽」技術太震撼！ 一掛美企老闆急了「我們把一手好牌打到輸」 - 財經</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/realtimenews/20250615000032-260410</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>他41歲存到2000萬提早退休 被女兒一句話刺傷重回職場 - 財經</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/realtimenews/20250615000011-260410</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>雷虎 成功站上月線 - 證券．權證</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000279-260206</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>台光電打造AI雙軌優勢 邁向爆發期 - 財經</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/realtimenews/20250615000010-260410</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>益安 買盤回籠翻多 - 證券．權證</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000273-260206</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>台北士林萬麗 豬腳麵線禮盒獻福 - 產業特刊</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000203-260210</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>王春盛資金輪動加速 AI仍為主流 - 產業特刊</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000230-260210</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>勞退盲目搶領 當心少賺多賠 - 產業特刊</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000286-260210</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>力挺AI鏈 五信賴產業動起來 - 財經要聞</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000141-260202</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>光寶科 再創波段新高 - 證券．權證</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000249-260206</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>兆豐金 資金持續卡位 - 證券．權證</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000245-260206</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>健策 衝1,600元大關 - 證券．權證</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000267-260206</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>假日不加價！蘊泉庄祭雙重住房專案 - 產業特刊</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000205-260210</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>保險新趨勢 維持健康狀況享優惠 - 金融．稅務</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000192-260205</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>來億-KY 主力進場拉抬 - 證券．權證</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000277-260206</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>以伊開戰 美股全倒 - 財經要聞</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000132-260202</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>以伊衝突推升通膨 台綜院：降息機率低 - 財經焦點</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000345-260110</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>以伊交火 專家推演五劇本 - 全球財經</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000164-260203</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>亞泥 股價伺機攻高 - 證券．權證</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000259-260206</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>中華電 股價勇締新猷 - 證券．權證</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000255-260206</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>中仍嚴控稀土 歐美企尋解方 - 全球財經</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000181-260203</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>COZZI Blu和逸飯店 推浪花微醺專案 - 產業．科技</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000297-260204</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>16檔雙低一高股 突圍 - 財經要聞</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000129-260202</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>華為和中芯列出口黑名單 經濟部：範圍更大 新增納管601個實體</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/realtimenews/20250615003016-260410</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>台塑化 油價大漲加持 - 證券．權證</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000275-260206</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>合庫金 外資買盤力挺 - 證券．權證</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000257-260206</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>國巨 填息開好彩頭 - 證券．權證</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000253-260206</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>外溢保單夯 留意五點 - 金融．稅務</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000189-260205</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>王春盛上周第6洞戰績 - 產業特刊</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000215-260210</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>玉山金 獲利動能強勁 - 證券．權證</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000243-260206</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>演唱會經濟熱 高雄旅宿賺飽 - 產業．科技</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000288-260204</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>港都唱高調 餐飲、交通同樂 - 產業．科技</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000291-260204</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>林鈺凱基本面有撐 伺機重返高點 - 產業特刊</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000235-260210</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>林鈺凱上周第6洞戰績 - 產業特刊</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000217-260210</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>新盛力 法人買盤帶旺 - 證券．權證</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000269-260206</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>文武雙全的非典型政治人物 國科會主委吳誠文推動務實型科研 - 專題周報</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000196-260209</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>皇翔、達麗 雙題材受追捧 - 財經要聞</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000160-260202</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>掌握科技節奏 數發部長黃彥男打造數位台灣 - 專題周報</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000198-260209</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>年化配息率逾7％ 12檔ETF吸金 - 財經要聞</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000154-260202</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>幣圈爭議人物孫宇晨靠攏川普 高調重返美國 - 全球財經</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000172-260203</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>工商社論》富足生於寬暇，貧窮起於無日 ─評台灣政治紛擾的危機 - 財經要聞</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000139-260202</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>川湖 營收繳出佳績 - 證券．權證</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000247-260206</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>川普財務揭露 加密幣進帳最猛 - 全球財經</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000167-260203</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>宏全 內資買超力挺 - 證券．權證</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000281-260206</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>央行理監事會敲鑼 聚焦新台幣升值 - 財經要聞</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000137-260202</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>大地酒店×礁溪寒沐 推雙泉夏日夢 - 產業特刊</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000207-260210</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>憂Meta入股洩密 Scale AI客戶出走 - 全球財經</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/newspapers/20250615000170-260203</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>擺脫浪費惡習！ 專家親授聰明省錢3步驟 - 財經</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>https://www.chinatimes.com/realtimenews/20250615003090-260410</t>
         </is>
       </c>
     </row>
